--- a/BTS306.CA.xlsx
+++ b/BTS306.CA.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B5D23B-846A-482D-B07C-B1F7BF954A25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3EBFA8-0A57-4A37-8B4F-543E9D36A4DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CA Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="Student Scores" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -46,166 +46,166 @@
     <t>Project Report (10)</t>
   </si>
   <si>
+    <t>07230122</t>
+  </si>
+  <si>
+    <t>Dechen Pelden</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>07230123</t>
+  </si>
+  <si>
+    <t>Dechen Phurba Drukpa</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
-    <t>F</t>
+    <t>07230124</t>
+  </si>
+  <si>
+    <t>Dorji Tenzin</t>
+  </si>
+  <si>
+    <t>07230125</t>
+  </si>
+  <si>
+    <t>Dorji Wangmo</t>
+  </si>
+  <si>
+    <t>07230126</t>
+  </si>
+  <si>
+    <t>Jampel Zangmo</t>
+  </si>
+  <si>
+    <t>07230127</t>
+  </si>
+  <si>
+    <t>Kalpana Gurung</t>
+  </si>
+  <si>
+    <t>07230128</t>
+  </si>
+  <si>
+    <t>Karma Dhendup</t>
+  </si>
+  <si>
+    <t>07230129</t>
+  </si>
+  <si>
+    <t>Kencho Zangmo</t>
+  </si>
+  <si>
+    <t>07230130</t>
+  </si>
+  <si>
+    <t>Kyelsang T. Tshogyel</t>
+  </si>
+  <si>
+    <t>07230131</t>
+  </si>
+  <si>
+    <t>Lilla Dhar Dungana</t>
+  </si>
+  <si>
+    <t>07230132</t>
+  </si>
+  <si>
+    <t>Madav Dulal</t>
+  </si>
+  <si>
+    <t>07230133</t>
+  </si>
+  <si>
+    <t>Monita Gurung</t>
+  </si>
+  <si>
+    <t>07230134</t>
+  </si>
+  <si>
+    <t>Nima Dorji</t>
+  </si>
+  <si>
+    <t>07230135</t>
+  </si>
+  <si>
+    <t>Om Bahadur Bista</t>
+  </si>
+  <si>
+    <t>07230136</t>
+  </si>
+  <si>
+    <t>Pema Choden</t>
+  </si>
+  <si>
+    <t>07230138</t>
+  </si>
+  <si>
+    <t>Pema Seldon</t>
+  </si>
+  <si>
+    <t>07230139</t>
+  </si>
+  <si>
+    <t>Priya Ghallay</t>
+  </si>
+  <si>
+    <t>07230140</t>
+  </si>
+  <si>
+    <t>Resham Subba</t>
+  </si>
+  <si>
+    <t>07230142</t>
+  </si>
+  <si>
+    <t>Senam Cheden</t>
+  </si>
+  <si>
+    <t>07230144</t>
+  </si>
+  <si>
+    <t>Sonam Tobgay Doya</t>
+  </si>
+  <si>
+    <t>07230145</t>
+  </si>
+  <si>
+    <t>Ugyen Phuntsho</t>
+  </si>
+  <si>
+    <t>07230146</t>
+  </si>
+  <si>
+    <t>Ugyen Tshoki Dorji</t>
+  </si>
+  <si>
+    <t>07230147</t>
+  </si>
+  <si>
+    <t>Yeshi Choden</t>
+  </si>
+  <si>
+    <t>07230148</t>
+  </si>
+  <si>
+    <t>Yeshi Negdup</t>
+  </si>
+  <si>
+    <t>07230149</t>
+  </si>
+  <si>
+    <t>Yeshi Samphel</t>
+  </si>
+  <si>
+    <t>07230211</t>
   </si>
   <si>
     <t>Jigme Wangmo</t>
-  </si>
-  <si>
-    <t>07230122</t>
-  </si>
-  <si>
-    <t>Dechen Pelden</t>
-  </si>
-  <si>
-    <t>07230123</t>
-  </si>
-  <si>
-    <t>Dechen Phurba Drukpa</t>
-  </si>
-  <si>
-    <t>07230124</t>
-  </si>
-  <si>
-    <t>Dorji Tenzin</t>
-  </si>
-  <si>
-    <t>07230125</t>
-  </si>
-  <si>
-    <t>Dorji Wangmo</t>
-  </si>
-  <si>
-    <t>07230126</t>
-  </si>
-  <si>
-    <t>Jampel Zangmo</t>
-  </si>
-  <si>
-    <t>07230127</t>
-  </si>
-  <si>
-    <t>Kalpana Gurung</t>
-  </si>
-  <si>
-    <t>07230128</t>
-  </si>
-  <si>
-    <t>Karma Dhendup</t>
-  </si>
-  <si>
-    <t>07230129</t>
-  </si>
-  <si>
-    <t>Kencho Zangmo</t>
-  </si>
-  <si>
-    <t>07230130</t>
-  </si>
-  <si>
-    <t>Kyelsang T. Tshogyel</t>
-  </si>
-  <si>
-    <t>07230131</t>
-  </si>
-  <si>
-    <t>Lilla Dhar Dungana</t>
-  </si>
-  <si>
-    <t>07230132</t>
-  </si>
-  <si>
-    <t>Madav Dulal</t>
-  </si>
-  <si>
-    <t>07230133</t>
-  </si>
-  <si>
-    <t>Monita Gurung</t>
-  </si>
-  <si>
-    <t>07230134</t>
-  </si>
-  <si>
-    <t>Nima Dorji</t>
-  </si>
-  <si>
-    <t>07230135</t>
-  </si>
-  <si>
-    <t>Om Bahadur Bista</t>
-  </si>
-  <si>
-    <t>07230136</t>
-  </si>
-  <si>
-    <t>Pema Choden</t>
-  </si>
-  <si>
-    <t>07230138</t>
-  </si>
-  <si>
-    <t>Pema Seldon</t>
-  </si>
-  <si>
-    <t>07230139</t>
-  </si>
-  <si>
-    <t>Priya Ghallay</t>
-  </si>
-  <si>
-    <t>07230140</t>
-  </si>
-  <si>
-    <t>Resham Subba</t>
-  </si>
-  <si>
-    <t>07230142</t>
-  </si>
-  <si>
-    <t>Senam Cheden</t>
-  </si>
-  <si>
-    <t>07230144</t>
-  </si>
-  <si>
-    <t>Sonam Tobgay Doya</t>
-  </si>
-  <si>
-    <t>07230145</t>
-  </si>
-  <si>
-    <t>Ugyen Phuntsho</t>
-  </si>
-  <si>
-    <t>07230146</t>
-  </si>
-  <si>
-    <t>Ugyen Tshoki Dorji</t>
-  </si>
-  <si>
-    <t>07230147</t>
-  </si>
-  <si>
-    <t>Yeshi Choden</t>
-  </si>
-  <si>
-    <t>07230148</t>
-  </si>
-  <si>
-    <t>Yeshi Negdup</t>
-  </si>
-  <si>
-    <t>07230149</t>
-  </si>
-  <si>
-    <t>Yeshi Samphel</t>
-  </si>
-  <si>
-    <t>07230211</t>
   </si>
 </sst>
 </file>
@@ -241,8 +241,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,23 +259,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CA_Marks" displayName="CA_Marks" ref="A1:H27">
-  <autoFilter ref="A1:H27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Student No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Gender"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Written Assignment (15)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Class Test (15)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Lab Record (10)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Presentation (10)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Project Report (10)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,14 +548,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="6" width="17" customWidth="1"/>
@@ -606,295 +590,682 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/BTS306.CA.xlsx
+++ b/BTS306.CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3EBFA8-0A57-4A37-8B4F-543E9D36A4DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9F1D8-A1DB-486D-B7AD-F311CFEADBC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,21 +599,6 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -625,21 +610,6 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -651,21 +621,6 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -677,21 +632,6 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -703,21 +643,6 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -729,21 +654,6 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -755,21 +665,6 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -781,21 +676,6 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -807,21 +687,6 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -833,21 +698,6 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -859,21 +709,6 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -885,21 +720,6 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -911,21 +731,6 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>9</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -937,21 +742,6 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -963,23 +753,8 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -989,23 +764,8 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1015,23 +775,8 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1041,23 +786,8 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -1067,23 +797,8 @@
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -1093,23 +808,8 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1119,23 +819,8 @@
       <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>11</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>8</v>
-      </c>
-      <c r="H22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1145,23 +830,8 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>13</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1171,23 +841,8 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1197,23 +852,8 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -1223,23 +863,8 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1248,21 +873,6 @@
       </c>
       <c r="C27" t="s">
         <v>10</v>
-      </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>8</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>8</v>
-      </c>
-      <c r="H27">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/BTS306.CA.xlsx
+++ b/BTS306.CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE11B7E-EAC8-423C-A3C8-1DB43A55EEA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3A3282-3A4E-4A1F-897A-1365CB6A4B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Student No</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Jigme Wangmo</t>
-  </si>
-  <si>
-    <t>Total (60)</t>
   </si>
 </sst>
 </file>
@@ -557,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" activeCellId="1" sqref="D4 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,7 +572,7 @@
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,11 +597,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -615,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="E2" s="3">
         <v>12</v>
@@ -629,12 +623,8 @@
       <c r="H2" s="1">
         <v>8.5</v>
       </c>
-      <c r="I2" s="3">
-        <f>D2+E2+F2+G2+H2</f>
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -645,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="E3" s="3">
         <v>8.1999999999999993</v>
@@ -659,12 +649,8 @@
       <c r="H3" s="1">
         <v>9</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I27" si="0">D3+E3+F3+G3+H3</f>
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -675,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E4" s="3">
         <v>13.199000000000002</v>
@@ -689,12 +675,8 @@
       <c r="H4" s="1">
         <v>8.6</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>38.298999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -705,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="E5" s="3">
         <v>12.799000000000001</v>
@@ -719,12 +701,8 @@
       <c r="H5" s="1">
         <v>8.5</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>37.899000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -735,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="E6" s="3">
         <v>14.4</v>
@@ -749,12 +727,8 @@
       <c r="H6" s="1">
         <v>8.5</v>
       </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -765,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="E7" s="3">
         <v>13.401</v>
@@ -779,12 +753,8 @@
       <c r="H7" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>39.201000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -795,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E8" s="3">
         <v>8.1999999999999993</v>
@@ -809,12 +779,8 @@
       <c r="H8" s="1">
         <v>8.5</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -825,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E9" s="3">
         <v>12.599</v>
@@ -839,12 +805,8 @@
       <c r="H9" s="1">
         <v>8.5</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>37.599000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -855,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E10" s="3">
         <v>13.799000000000001</v>
@@ -869,12 +831,8 @@
       <c r="H10" s="1">
         <v>8.5</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>38.899000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -885,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E11" s="3">
         <v>14.199000000000002</v>
@@ -899,12 +857,8 @@
       <c r="H11" s="1">
         <v>8.5</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>38.798999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -915,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="E12" s="3">
         <v>11.199</v>
@@ -929,12 +883,8 @@
       <c r="H12" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>35.998999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -945,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="E13" s="3">
         <v>11.399000000000001</v>
@@ -959,12 +909,8 @@
       <c r="H13" s="1">
         <v>8.5</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>36.298999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -975,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="E14" s="3">
         <v>7.4</v>
@@ -989,12 +935,8 @@
       <c r="H14" s="1">
         <v>8.5</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1005,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="E15" s="3">
         <v>6.6</v>
@@ -1019,12 +961,8 @@
       <c r="H15" s="1">
         <v>8.5</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>7230136</v>
       </c>
@@ -1035,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E16" s="3">
         <v>13.4</v>
@@ -1049,12 +987,8 @@
       <c r="H16" s="1">
         <v>8.1</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1065,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="E17" s="3">
         <v>13.600999999999999</v>
@@ -1079,12 +1013,8 @@
       <c r="H17" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>39.001000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1095,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="E18" s="3">
         <v>13.2</v>
@@ -1109,12 +1039,8 @@
       <c r="H18" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1125,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="E19" s="3">
         <v>11.599</v>
@@ -1139,12 +1065,8 @@
       <c r="H19" s="1">
         <v>8.9</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>37.198999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1155,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="E20" s="3">
         <v>12.999000000000001</v>
@@ -1169,12 +1091,8 @@
       <c r="H20" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>38.698999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1185,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="E21" s="3">
         <v>13.799000000000001</v>
@@ -1199,12 +1117,8 @@
       <c r="H21" s="1">
         <v>8.1</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>37.698999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -1215,7 +1129,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="E22" s="3">
         <v>4.5999999999999996</v>
@@ -1229,12 +1143,8 @@
       <c r="H22" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I22" s="3">
-        <f t="shared" si="0"/>
-        <v>28.900000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1245,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="E23" s="3">
         <v>13.799000000000001</v>
@@ -1259,12 +1169,8 @@
       <c r="H23" s="1">
         <v>8.9</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" si="0"/>
-        <v>39.198999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1275,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="E24" s="3">
         <v>14.199000000000002</v>
@@ -1289,12 +1195,8 @@
       <c r="H24" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I24" s="3">
-        <f t="shared" si="0"/>
-        <v>39.599000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1305,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="E25" s="3">
         <v>13.399000000000001</v>
@@ -1319,12 +1221,8 @@
       <c r="H25" s="1">
         <v>8.9</v>
       </c>
-      <c r="I25" s="3">
-        <f t="shared" si="0"/>
-        <v>38.698999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1335,7 +1233,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="E26" s="3">
         <v>13.401</v>
@@ -1349,12 +1247,8 @@
       <c r="H26" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I26" s="3">
-        <f t="shared" si="0"/>
-        <v>38.801000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -1365,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E27" s="3">
         <v>14.6</v>
@@ -1378,10 +1272,6 @@
       </c>
       <c r="H27" s="1">
         <v>8.8000000000000007</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="0"/>
-        <v>39.900000000000006</v>
       </c>
     </row>
   </sheetData>
